--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">le rendu de la page HTML est bloquer par le chargement des scripts</t>
   </si>
   <si>
-    <t xml:space="preserve">scipt defer sur tout les fichiers</t>
+    <t xml:space="preserve">script defer sur tout les fichiers</t>
   </si>
   <si>
     <t xml:space="preserve">defer à tout les scripts</t>
@@ -197,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -249,12 +249,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -304,7 +298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,10 +320,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,13 +403,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="D3:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.06"/>
@@ -517,7 +507,7 @@
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">defer à tout les scripts</t>
   </si>
   <si>
+    <t xml:space="preserve">mdn, w3c</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEO</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">retirer png </t>
   </si>
   <si>
+    <t xml:space="preserve">OpenClassroom, </t>
+  </si>
+  <si>
     <t xml:space="preserve">Keywords cachés</t>
   </si>
   <si>
@@ -82,9 +88,6 @@
     <t xml:space="preserve">les retirer</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenClassroom, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Liens annuaire</t>
   </si>
   <si>
@@ -155,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">veiller à respecter toute les nuances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdn, w3c</t>
   </si>
   <si>
     <t xml:space="preserve">Tailles police</t>
@@ -403,7 +403,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="D3:F15"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,132 +476,138 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
